--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_relationship_info[NPC关系信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_relationship_info[NPC关系信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="NpcRelationshipInfo" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>icon_res</t>
+  </si>
+  <si>
+    <t>name[language]</t>
+  </si>
+  <si>
     <t>relationship_min</t>
   </si>
   <si>
@@ -47,12 +53,21 @@
     <t>long</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>图标资源</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
     <t>范围最小值</t>
   </si>
   <si>
@@ -60,6 +75,9 @@
   </si>
   <si>
     <t>关系类型</t>
+  </si>
+  <si>
+    <t>ui_creature_attribute_1</t>
   </si>
 </sst>
 </file>
@@ -1027,24 +1045,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="1" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,102 +1075,150 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:4">
+    <row r="4" customFormat="1" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:4">
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>101</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:4">
+    <row r="6" customFormat="1" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>201</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>300</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:4">
+    <row r="7" customFormat="1" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>301</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>400</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>401</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>500</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>5</v>
       </c>
     </row>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_relationship_info[NPC关系信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_npc_relationship_info[NPC关系信息].xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -77,7 +77,19 @@
     <t>关系类型</t>
   </si>
   <si>
-    <t>ui_creature_attribute_1</t>
+    <t>ui_relationship_5</t>
+  </si>
+  <si>
+    <t>ui_relationship_4</t>
+  </si>
+  <si>
+    <t>ui_relationship_3</t>
+  </si>
+  <si>
+    <t>ui_relationship_2</t>
+  </si>
+  <si>
+    <t>ui_relationship_1</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1064,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1147,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1167,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1187,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1207,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>5</v>
